--- a/week-1-intro-and-conditionals/video1.1-stocks_data.xlsx
+++ b/week-1-intro-and-conditionals/video1.1-stocks_data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="2320" windowWidth="25120" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="2200" windowWidth="25120" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Symbol</t>
   </si>
@@ -345,12 +346,24 @@
   </si>
   <si>
     <t>Trend</t>
+  </si>
+  <si>
+    <t>My Shares</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -376,10 +389,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -388,11 +419,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,9 +781,12 @@
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="9" max="9" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,11 +802,20 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -773,18 +825,29 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
         <v>5905518</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="9" t="str">
+        <f>LEFT(C2,FIND(" ",C2) -1)</f>
+        <v>6.54</v>
+      </c>
+      <c r="G2" s="7" t="str">
         <f>LEFT(D2,FIND(" ",D2) -1)</f>
         <v>Up</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="10">
+        <v>683</v>
+      </c>
+      <c r="I2" s="12">
+        <f>F2*H2</f>
+        <v>4466.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -800,12 +863,23 @@
       <c r="E3">
         <v>1620464</v>
       </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F26" si="0">LEFT(D3,FIND(" ",D3) -1)</f>
+      <c r="F3" s="9" t="str">
+        <f t="shared" ref="F3:F26" si="0">LEFT(C3,FIND(" ",C3) -1)</f>
+        <v>16.07</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f t="shared" ref="G3:G26" si="1">LEFT(D3,FIND(" ",D3) -1)</f>
         <v>Down</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I26" si="2">F3*H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -821,12 +895,23 @@
       <c r="E4">
         <v>809560</v>
       </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>62.03</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -842,12 +927,23 @@
       <c r="E5">
         <v>857815</v>
       </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="F5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>90.47</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="10">
+        <v>281</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="2"/>
+        <v>25422.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -863,12 +959,23 @@
       <c r="E6">
         <v>220583</v>
       </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>75.49</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -884,12 +991,23 @@
       <c r="E7">
         <v>442244</v>
       </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>39.99</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -905,12 +1023,23 @@
       <c r="E8">
         <v>712875</v>
       </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>17.39</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H8" s="10">
+        <v>789</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="2"/>
+        <v>13720.710000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -926,12 +1055,23 @@
       <c r="E9">
         <v>617676</v>
       </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="F9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>47.02</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -947,12 +1087,23 @@
       <c r="E10">
         <v>1469229</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>20.24</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -968,12 +1119,23 @@
       <c r="E11">
         <v>608238</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>65.75</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -989,12 +1151,23 @@
       <c r="E12">
         <v>461455</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="F12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>66.47</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="10">
+        <v>434</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="2"/>
+        <v>28847.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1010,12 +1183,23 @@
       <c r="E13">
         <v>22634182</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>11.53</v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1031,12 +1215,23 @@
       <c r="E14">
         <v>15310640</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2.81</v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1052,12 +1247,23 @@
       <c r="E15">
         <v>152575</v>
       </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>42.78</v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1073,12 +1279,23 @@
       <c r="E16">
         <v>10381444</v>
       </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>8.86</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1094,12 +1311,23 @@
       <c r="E17">
         <v>196405</v>
       </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>31.81</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1115,12 +1343,23 @@
       <c r="E18">
         <v>2320528</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>25.13</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1136,12 +1375,23 @@
       <c r="E19">
         <v>592794</v>
       </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>47.06</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1157,12 +1407,23 @@
       <c r="E20">
         <v>9595922</v>
       </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>28.75</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H20" s="10">
+        <v>426</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="2"/>
+        <v>12247.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1178,12 +1439,23 @@
       <c r="E21">
         <v>1013226</v>
       </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>21.72</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1199,12 +1471,23 @@
       <c r="E22">
         <v>2673997</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>10.30</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1220,12 +1503,23 @@
       <c r="E23">
         <v>2395571</v>
       </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="F23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>5.85</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1241,12 +1535,23 @@
       <c r="E24">
         <v>315394</v>
       </c>
-      <c r="F24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>259.35</v>
+      </c>
+      <c r="G24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1262,12 +1567,23 @@
       <c r="E25">
         <v>5033083</v>
       </c>
-      <c r="F25" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="F25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>37.63</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -1283,12 +1599,24 @@
       <c r="E26">
         <v>668796</v>
       </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Up</v>
+      <c r="F26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>26.21</v>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Up</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/week-1-intro-and-conditionals/video1.1-stocks_data.xlsx
+++ b/week-1-intro-and-conditionals/video1.1-stocks_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="2200" windowWidth="25120" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="6880" yWindow="2100" windowWidth="21480" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Symbol</t>
   </si>
@@ -355,6 +355,39 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Amount to sell</t>
+  </si>
+  <si>
+    <t>Up-Shares</t>
+  </si>
+  <si>
+    <t>Down-Shares</t>
+  </si>
+  <si>
+    <t>Type of Shares</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Portfolio, conditions, and profit data.</t>
+  </si>
+  <si>
+    <t>Trend breakdown.</t>
+  </si>
+  <si>
+    <t>Alternative trend breakdown.</t>
+  </si>
+  <si>
+    <t>Ticker data as obtained from the web, data include: Symbol, Name, Last Trade (price and time), Change, and Volume.</t>
+  </si>
+  <si>
+    <t>Value and Trend, as sliced from ticker data.</t>
   </si>
 </sst>
 </file>
@@ -419,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -431,13 +464,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -769,853 +945,1252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="8"/>
-    <col min="9" max="9" width="10.83203125" style="12"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="K4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E5">
         <v>5905518</v>
       </c>
-      <c r="F2" s="9" t="str">
-        <f>LEFT(C2,FIND(" ",C2) -1)</f>
+      <c r="F5" s="9" t="str">
+        <f>LEFT(C5,FIND(" ",C5) -1)</f>
         <v>6.54</v>
       </c>
-      <c r="G2" s="7" t="str">
-        <f>LEFT(D2,FIND(" ",D2) -1)</f>
+      <c r="G5" s="7" t="str">
+        <f>LEFT(D5,FIND(" ",D5) -1)</f>
         <v>Up</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H5" s="10">
         <v>683</v>
       </c>
-      <c r="I2" s="12">
-        <f>F2*H2</f>
-        <v>4466.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I5">
+        <f>ROUND(IF(G5="Up",0,H5/2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f>F5*I5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>IF(G5="Up",H5,0)</f>
+        <v>683</v>
+      </c>
+      <c r="L5" s="8">
+        <f>IF(G5="Down",H5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5">
+        <f>SUMIF(G:G,M5,H:H)</f>
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>1620464</v>
       </c>
-      <c r="F3" s="9" t="str">
-        <f t="shared" ref="F3:F26" si="0">LEFT(C3,FIND(" ",C3) -1)</f>
+      <c r="F6" s="9" t="str">
+        <f t="shared" ref="F6:F29" si="0">LEFT(C6,FIND(" ",C6) -1)</f>
         <v>16.07</v>
       </c>
-      <c r="G3" s="7" t="str">
-        <f t="shared" ref="G3:G26" si="1">LEFT(D3,FIND(" ",D3) -1)</f>
+      <c r="G6" s="7" t="str">
+        <f t="shared" ref="G6:G29" si="1">LEFT(D6,FIND(" ",D6) -1)</f>
         <v>Down</v>
       </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I26" si="2">F3*H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I29" si="2">ROUND(IF(G6="Up",0,H6/2),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6:J29" si="3">F6*I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K29" si="4">IF(G6="Up",H6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ref="L6:L29" si="5">IF(G6="Down",H6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6">
+        <f>SUMIF(G:G,M6,H:H)</f>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>809560</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>62.03</v>
       </c>
-      <c r="G4" s="7" t="str">
+      <c r="G7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>857815</v>
       </c>
-      <c r="F5" s="9" t="str">
+      <c r="F8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>90.47</v>
       </c>
-      <c r="G5" s="7" t="str">
+      <c r="G8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H8" s="10">
         <v>281</v>
       </c>
-      <c r="I5" s="12">
-        <f t="shared" si="2"/>
-        <v>25422.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="3"/>
+        <v>12756.27</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="5"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>220583</v>
       </c>
-      <c r="F6" s="9" t="str">
+      <c r="F9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>75.49</v>
       </c>
-      <c r="G6" s="7" t="str">
+      <c r="G9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>442244</v>
       </c>
-      <c r="F7" s="9" t="str">
+      <c r="F10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>39.99</v>
       </c>
-      <c r="G7" s="7" t="str">
+      <c r="G10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>712875</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>17.39</v>
       </c>
-      <c r="G8" s="7" t="str">
+      <c r="G11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H11" s="10">
         <v>789</v>
       </c>
-      <c r="I8" s="12">
-        <f t="shared" si="2"/>
-        <v>13720.710000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>789</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>617676</v>
       </c>
-      <c r="F9" s="9" t="str">
+      <c r="F12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>47.02</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="G12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>1469229</v>
       </c>
-      <c r="F10" s="9" t="str">
+      <c r="F13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>20.24</v>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="G13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>608238</v>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>65.75</v>
       </c>
-      <c r="G11" s="7" t="str">
+      <c r="G14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>461455</v>
       </c>
-      <c r="F12" s="9" t="str">
+      <c r="F15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>66.47</v>
       </c>
-      <c r="G12" s="7" t="str">
+      <c r="G15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H15" s="10">
         <v>434</v>
       </c>
-      <c r="I12" s="12">
-        <f t="shared" si="2"/>
-        <v>28847.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="3"/>
+        <v>14423.99</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="5"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>22634182</v>
       </c>
-      <c r="F13" s="9" t="str">
+      <c r="F16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>11.53</v>
       </c>
-      <c r="G13" s="7" t="str">
+      <c r="G16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E14">
+      <c r="E17">
         <v>15310640</v>
       </c>
-      <c r="F14" s="9" t="str">
+      <c r="F17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>2.81</v>
       </c>
-      <c r="G14" s="7" t="str">
+      <c r="G17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>152575</v>
       </c>
-      <c r="F15" s="9" t="str">
+      <c r="F18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>42.78</v>
       </c>
-      <c r="G15" s="7" t="str">
+      <c r="G18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="E16">
+      <c r="E19">
         <v>10381444</v>
       </c>
-      <c r="F16" s="9" t="str">
+      <c r="F19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>8.86</v>
       </c>
-      <c r="G16" s="7" t="str">
+      <c r="G19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>196405</v>
       </c>
-      <c r="F17" s="9" t="str">
+      <c r="F20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>31.81</v>
       </c>
-      <c r="G17" s="7" t="str">
+      <c r="G20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>2320528</v>
       </c>
-      <c r="F18" s="9" t="str">
+      <c r="F21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>25.13</v>
       </c>
-      <c r="G18" s="7" t="str">
+      <c r="G21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>76</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <v>592794</v>
       </c>
-      <c r="F19" s="9" t="str">
+      <c r="F22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>47.06</v>
       </c>
-      <c r="G19" s="7" t="str">
+      <c r="G22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>80</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>9595922</v>
       </c>
-      <c r="F20" s="9" t="str">
+      <c r="F23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>28.75</v>
       </c>
-      <c r="G20" s="7" t="str">
+      <c r="G23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H23" s="10">
         <v>426</v>
       </c>
-      <c r="I20" s="12">
-        <f t="shared" si="2"/>
-        <v>12247.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>426</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>1013226</v>
       </c>
-      <c r="F21" s="9" t="str">
+      <c r="F24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>21.72</v>
       </c>
-      <c r="G21" s="7" t="str">
+      <c r="G24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="E22">
+      <c r="E25">
         <v>2673997</v>
       </c>
-      <c r="F22" s="9" t="str">
+      <c r="F25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>10.30</v>
       </c>
-      <c r="G22" s="7" t="str">
+      <c r="G25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>2395571</v>
       </c>
-      <c r="F23" s="9" t="str">
+      <c r="F26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>5.85</v>
       </c>
-      <c r="G23" s="7" t="str">
+      <c r="G26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>315394</v>
       </c>
-      <c r="F24" s="9" t="str">
+      <c r="F27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>259.35</v>
       </c>
-      <c r="G24" s="7" t="str">
+      <c r="G27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>100</v>
       </c>
-      <c r="E25">
+      <c r="E28">
         <v>5033083</v>
       </c>
-      <c r="F25" s="9" t="str">
+      <c r="F28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>37.63</v>
       </c>
-      <c r="G25" s="7" t="str">
+      <c r="G28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Down</v>
       </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>101</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>103</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>668796</v>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>26.21</v>
       </c>
-      <c r="G26" s="7" t="str">
+      <c r="G29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Up</v>
       </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F30" s="9"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <f>SUM(K5:K29)</f>
+        <v>1898</v>
+      </c>
+      <c r="L31" s="8">
+        <f>SUM(L5:L29)</f>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"""Up"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:N29">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$M$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$M$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>IF($G$4:$G$29="Up",$A$5:$G$29,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:F5">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>IF($G$5="Up",$A$5:$F$5,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
